--- a/FPT_23.10_17.11.xlsx
+++ b/FPT_23.10_17.11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lam-du-an\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EAC3369-84B6-42E5-9D73-E8BD2447E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AB5733-8CDD-4427-B267-3CA6D4FC4C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.21875" bestFit="1" customWidth="1"/>
